--- a/p_to_ob/data_ptoo.xlsx
+++ b/p_to_ob/data_ptoo.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,9 +21,68 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+  <si>
+    <t>$\frac{dN}{d\eta}$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$\frac{dN_1}{d\eta}$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$\langle p_T\rangle_1$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$\langle p_T\rangle_2$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$\langle p_T\rangle_3$</t>
+  </si>
+  <si>
+    <t>$\frac{dN_2}{d\eta}$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$\frac{dN_3}{d\eta}$</t>
+  </si>
+  <si>
+    <t>$v_2$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0%-5%</t>
+  </si>
+  <si>
+    <t>5%-10%</t>
+  </si>
+  <si>
+    <t>10%-20%</t>
+  </si>
+  <si>
+    <t>20%-30%</t>
+  </si>
+  <si>
+    <t>30%-40%</t>
+  </si>
+  <si>
+    <t>40%-50%</t>
+  </si>
+  <si>
+    <t>50%-60%</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="183" formatCode="0.000000000"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -35,6 +95,13 @@
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -58,8 +125,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -342,8 +418,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V25" sqref="V25"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="Z14" sqref="Z14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8327,8 +8403,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="X40" sqref="X40"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="X1" sqref="X1:X56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -12632,4 +12708,263 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="22.75" customWidth="1"/>
+    <col min="2" max="2" width="13" customWidth="1"/>
+    <col min="3" max="3" width="13.5" customWidth="1"/>
+    <col min="4" max="4" width="13.625" customWidth="1"/>
+    <col min="5" max="5" width="14.125" customWidth="1"/>
+    <col min="6" max="6" width="13.375" customWidth="1"/>
+    <col min="7" max="7" width="15.75" customWidth="1"/>
+    <col min="8" max="8" width="12.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2">
+        <v>7.3761457999849678E-3</v>
+      </c>
+      <c r="C2" s="2">
+        <v>7.7193442337595642E-3</v>
+      </c>
+      <c r="D2" s="2">
+        <v>1.1512922362063024E-2</v>
+      </c>
+      <c r="E2" s="2">
+        <v>1.2785048852014091E-2</v>
+      </c>
+      <c r="F2" s="2">
+        <v>1.5412069872261789E-2</v>
+      </c>
+      <c r="G2" s="2">
+        <v>2.2939148900087334E-2</v>
+      </c>
+      <c r="H2" s="2">
+        <v>3.9579966266266482E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2">
+        <v>1.7475532819494852E-2</v>
+      </c>
+      <c r="C3" s="2">
+        <v>2.1452113698957141E-2</v>
+      </c>
+      <c r="D3" s="2">
+        <v>2.6651772283481524E-2</v>
+      </c>
+      <c r="E3" s="2">
+        <v>2.8916698215397874E-2</v>
+      </c>
+      <c r="F3" s="2">
+        <v>3.3870290962713975E-2</v>
+      </c>
+      <c r="G3" s="2">
+        <v>4.6718062089419539E-2</v>
+      </c>
+      <c r="H3" s="2">
+        <v>4.9498239287723143E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2">
+        <v>4.160228833204431E-2</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1.5767206059431507E-2</v>
+      </c>
+      <c r="D4" s="2">
+        <v>3.6266427600736541E-2</v>
+      </c>
+      <c r="E4" s="2">
+        <v>4.3734196685655979E-2</v>
+      </c>
+      <c r="F4" s="2">
+        <v>6.4883361355186783E-2</v>
+      </c>
+      <c r="G4" s="2">
+        <v>4.565443612053726E-2</v>
+      </c>
+      <c r="H4" s="2">
+        <v>4.835431647036776E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2">
+        <v>3.8458613737012225E-2</v>
+      </c>
+      <c r="C5" s="2">
+        <v>5.1829324272528045E-2</v>
+      </c>
+      <c r="D5" s="2">
+        <v>3.0411660294084351E-2</v>
+      </c>
+      <c r="E5" s="2">
+        <v>3.238079090311452E-2</v>
+      </c>
+      <c r="F5" s="2">
+        <v>4.7654788816843013E-2</v>
+      </c>
+      <c r="G5" s="2">
+        <v>3.6177341973630123E-2</v>
+      </c>
+      <c r="H5" s="2">
+        <v>3.5276137676416922E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2">
+        <v>2.1530558368139958E-2</v>
+      </c>
+      <c r="C6" s="2">
+        <v>8.1194739985142678E-2</v>
+      </c>
+      <c r="D6" s="2">
+        <v>3.0604293316258323E-2</v>
+      </c>
+      <c r="E6" s="2">
+        <v>4.0082165220251174E-2</v>
+      </c>
+      <c r="F6" s="2">
+        <v>8.528659042794412E-2</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0.10003055944092605</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0.16367394124574328</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2">
+        <v>7.8160752782500866E-3</v>
+      </c>
+      <c r="C7" s="2">
+        <v>8.1321081039432488E-3</v>
+      </c>
+      <c r="D7" s="2">
+        <v>1.2997922544991313E-2</v>
+      </c>
+      <c r="E7" s="2">
+        <v>1.4810855071712831E-2</v>
+      </c>
+      <c r="F7" s="2">
+        <v>1.7131299473061259E-2</v>
+      </c>
+      <c r="G7" s="2">
+        <v>2.2045723012262375E-2</v>
+      </c>
+      <c r="H7" s="2">
+        <v>3.6708796830426306E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2">
+        <v>2.8851318988763346E-2</v>
+      </c>
+      <c r="C8" s="2">
+        <v>4.5817466543101863E-2</v>
+      </c>
+      <c r="D8" s="2">
+        <v>4.0111540528787647E-2</v>
+      </c>
+      <c r="E8" s="2">
+        <v>4.4011612776581416E-2</v>
+      </c>
+      <c r="F8" s="2">
+        <v>6.1700702560477071E-2</v>
+      </c>
+      <c r="G8" s="2">
+        <v>6.7988855236715537E-2</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0.13486248430234307</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="3">
+        <v>1.1667829412402182</v>
+      </c>
+      <c r="C9" s="3">
+        <v>1.3442753409455104</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0.6259210188818991</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0.72400155938788524</v>
+      </c>
+      <c r="F9" s="3">
+        <v>0.94186267403939106</v>
+      </c>
+      <c r="G9" s="3">
+        <v>0.36248812168539557</v>
+      </c>
+      <c r="H9" s="3">
+        <v>1.177389625684256</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>